--- a/python/awd design.xlsx
+++ b/python/awd design.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\projects\python\stratpy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433E1E3C-8321-41B5-AFDF-59186E3593A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C81E80-593C-4614-9E19-4688F9EB7BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{941DC015-18D2-4CA3-9FF2-E6F138C7DA80}"/>
   </bookViews>
   <sheets>
-    <sheet name="Input " sheetId="1" r:id="rId1"/>
+    <sheet name="Input Files" sheetId="1" r:id="rId1"/>
     <sheet name="Logic" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
   <si>
     <t>Data Source</t>
   </si>
@@ -122,13 +122,49 @@
   </si>
   <si>
     <t>LIMIT</t>
+  </si>
+  <si>
+    <t>Operator</t>
+  </si>
+  <si>
+    <t>Group ID</t>
+  </si>
+  <si>
+    <t>Extra Expression</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>greater</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>SUBSTRING</t>
+  </si>
+  <si>
+    <t>customer_id</t>
+  </si>
+  <si>
+    <t>SUBSTRING(customer_id, 1, 3)</t>
+  </si>
+  <si>
+    <t>CASE WHEN</t>
+  </si>
+  <si>
+    <t>CASE WHEN area=101 THEN 'GZ' WHEN area=201 THEN 'HK' END AS region</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +185,15 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -175,7 +220,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -184,6 +229,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -502,7 +550,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -553,10 +601,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7EB2075-572E-489F-B889-E1B9FD2C54BA}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -571,33 +619,42 @@
     <col min="8" max="8" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="K1" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -612,8 +669,11 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -629,96 +689,214 @@
       <c r="E3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
       <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2022</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="2">
+      <c r="H8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2">
         <v>100</v>
+      </c>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="151.80000000000001" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
